--- a/SCBAA/2016/Region 1.xlsx
+++ b/SCBAA/2016/Region 1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2016\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4DAE2B-BCE2-4243-B3F8-1ACCACCD58AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0147B9-3A41-4631-80C6-ABE18A0E1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12375" yWindow="15" windowWidth="14625" windowHeight="12540" firstSheet="4" activeTab="8" xr2:uid="{59A44D02-77E2-42B7-86D9-FC4759A67587}"/>
+    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="7" xr2:uid="{59A44D02-77E2-42B7-86D9-FC4759A67587}"/>
   </bookViews>
   <sheets>
     <sheet name="Alaminos" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -575,15 +582,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="19" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -624,6 +622,15 @@
     </xf>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -962,54 +969,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1023,22 +1030,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -2151,54 +2158,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -2212,22 +2219,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -2262,7 +2269,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="25">
         <f>10476592.27+10077118.82</f>
         <v>20553711.09</v>
       </c>
@@ -2285,7 +2292,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="28">
+      <c r="E13" s="25">
         <v>27531547.760000002</v>
       </c>
     </row>
@@ -2317,7 +2324,7 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="28">
+      <c r="E16" s="25">
         <v>744134.6</v>
       </c>
     </row>
@@ -2328,7 +2335,7 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="28">
+      <c r="E17" s="25">
         <v>48364716.509999998</v>
       </c>
     </row>
@@ -2339,7 +2346,7 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="25">
         <v>3952066.33</v>
       </c>
     </row>
@@ -2371,7 +2378,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="28">
+      <c r="E21" s="25">
         <v>340058729</v>
       </c>
     </row>
@@ -2382,7 +2389,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <v>776413.64</v>
       </c>
     </row>
@@ -2435,7 +2442,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="28">
+      <c r="E27" s="25">
         <v>146821518</v>
       </c>
     </row>
@@ -2587,7 +2594,7 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="28">
+      <c r="E42" s="25">
         <v>59405975.850000001</v>
       </c>
     </row>
@@ -2598,7 +2605,7 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="28">
+      <c r="E43" s="25">
         <v>33131509.09</v>
       </c>
     </row>
@@ -2609,7 +2616,7 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="28">
+      <c r="E44" s="25">
         <v>3876010</v>
       </c>
     </row>
@@ -2629,7 +2636,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="25">
         <v>330156.88</v>
       </c>
     </row>
@@ -2640,7 +2647,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="25">
         <v>3817997.25</v>
       </c>
     </row>
@@ -2651,7 +2658,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="25">
         <v>9900</v>
       </c>
     </row>
@@ -2671,7 +2678,7 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="28">
+      <c r="E50" s="25">
         <v>9323529.6699999999</v>
       </c>
     </row>
@@ -2682,7 +2689,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="28">
+      <c r="E51" s="25">
         <v>6648526.9699999997</v>
       </c>
     </row>
@@ -2693,7 +2700,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="28">
+      <c r="E52" s="25">
         <v>19961</v>
       </c>
     </row>
@@ -2797,7 +2804,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="28">
+      <c r="E62" s="25">
         <v>2018952.9</v>
       </c>
     </row>
@@ -2808,7 +2815,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="28">
+      <c r="E63" s="25">
         <v>17389307.920000002</v>
       </c>
     </row>
@@ -2839,7 +2846,7 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="28">
+      <c r="E66" s="25">
         <v>27976352.57</v>
       </c>
     </row>
@@ -2850,7 +2857,7 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="28">
+      <c r="E67" s="25">
         <v>33541392.489999998</v>
       </c>
     </row>
@@ -2861,7 +2868,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="28">
+      <c r="E68" s="25">
         <v>10430401.91</v>
       </c>
     </row>
@@ -2963,7 +2970,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="28">
+      <c r="E78" s="25">
         <v>6956588</v>
       </c>
     </row>
@@ -2974,7 +2981,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="28">
+      <c r="E79" s="25">
         <v>1976929.2</v>
       </c>
     </row>
@@ -2994,7 +3001,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="28">
+      <c r="E81" s="25">
         <v>395549.26</v>
       </c>
     </row>
@@ -3025,7 +3032,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="28">
+      <c r="E84" s="25">
         <v>13944250</v>
       </c>
     </row>
@@ -3056,7 +3063,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="25">
         <v>4024060.86</v>
       </c>
     </row>
@@ -3067,7 +3074,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="25">
         <v>10284788.109999999</v>
       </c>
     </row>
@@ -3150,7 +3157,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="29">
+      <c r="E96" s="26">
         <v>5242475.5</v>
       </c>
       <c r="G96" s="13"/>
@@ -3175,7 +3182,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="29">
+      <c r="E98" s="26">
         <v>169500</v>
       </c>
     </row>
@@ -3193,7 +3200,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="29">
+      <c r="E100" s="26">
         <v>11130</v>
       </c>
     </row>
@@ -3247,7 +3254,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="29">
+      <c r="E106" s="26">
         <v>32093210.809999999</v>
       </c>
     </row>
@@ -3265,7 +3272,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="29">
+      <c r="E108" s="26">
         <v>71798958.560000002</v>
       </c>
     </row>
@@ -3284,11 +3291,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="29">
+      <c r="E110" s="26">
         <v>7545453.3799999999</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -3343,54 +3350,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -3404,22 +3411,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -3454,7 +3461,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>15286878.09</v>
       </c>
     </row>
@@ -3465,7 +3472,7 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>30751354.329999998</v>
       </c>
     </row>
@@ -3476,7 +3483,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>1889458.5799999998</v>
       </c>
     </row>
@@ -3508,7 +3515,7 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="28">
         <v>8650076.8100000005</v>
       </c>
     </row>
@@ -3519,7 +3526,7 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="27">
         <v>32452062.890000001</v>
       </c>
     </row>
@@ -3530,7 +3537,7 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="27">
         <v>1771987.45</v>
       </c>
     </row>
@@ -3562,7 +3569,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="30">
+      <c r="E21" s="27">
         <v>309433109.17000002</v>
       </c>
     </row>
@@ -3573,7 +3580,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="28">
+      <c r="E22" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3626,7 +3633,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <v>356844185</v>
       </c>
     </row>
@@ -3646,7 +3653,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="29">
         <v>22191005.960000001</v>
       </c>
     </row>
@@ -3778,7 +3785,7 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="29">
         <v>87289454.780000001</v>
       </c>
     </row>
@@ -3789,7 +3796,7 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="32">
+      <c r="E43" s="29">
         <v>97475837.949999988</v>
       </c>
     </row>
@@ -3800,7 +3807,7 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="32">
+      <c r="E44" s="29">
         <v>4364494.3899999997</v>
       </c>
     </row>
@@ -3820,7 +3827,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="28">
+      <c r="E46" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3831,7 +3838,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="28">
+      <c r="E47" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3842,7 +3849,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="28">
+      <c r="E48" s="25">
         <v>0</v>
       </c>
     </row>
@@ -3862,7 +3869,7 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="31">
+      <c r="E50" s="28">
         <v>16360717.310000001</v>
       </c>
     </row>
@@ -3873,7 +3880,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="31">
+      <c r="E51" s="28">
         <v>4358177.24</v>
       </c>
     </row>
@@ -3884,7 +3891,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="32">
+      <c r="E52" s="29">
         <v>47320</v>
       </c>
     </row>
@@ -3988,7 +3995,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="31">
+      <c r="E62" s="28">
         <v>12414137.630000001</v>
       </c>
     </row>
@@ -3999,7 +4006,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="31">
+      <c r="E63" s="28">
         <v>20380192.550000001</v>
       </c>
     </row>
@@ -4010,7 +4017,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="31">
+      <c r="E64" s="28">
         <v>118089.60000000009</v>
       </c>
     </row>
@@ -4030,7 +4037,7 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="31">
+      <c r="E66" s="28">
         <v>27972000.649999999</v>
       </c>
     </row>
@@ -4041,7 +4048,7 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="31">
+      <c r="E67" s="28">
         <v>20215713.659999996</v>
       </c>
     </row>
@@ -4052,7 +4059,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="31">
+      <c r="E68" s="28">
         <v>532907.07999999914</v>
       </c>
     </row>
@@ -4123,7 +4130,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="31">
+      <c r="E75" s="28">
         <v>979925.4</v>
       </c>
     </row>
@@ -4154,7 +4161,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="31">
+      <c r="E78" s="28">
         <v>3128937.36</v>
       </c>
     </row>
@@ -4165,7 +4172,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="31">
+      <c r="E79" s="28">
         <v>4083341.96</v>
       </c>
     </row>
@@ -4185,7 +4192,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="29">
         <v>50752222.829999998</v>
       </c>
     </row>
@@ -4196,7 +4203,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="32">
+      <c r="E82" s="29">
         <v>6025624</v>
       </c>
     </row>
@@ -4216,7 +4223,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>28074263.210000001</v>
       </c>
     </row>
@@ -4227,7 +4234,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="28">
         <v>23268274.149999999</v>
       </c>
     </row>
@@ -4247,7 +4254,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4258,7 +4265,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4341,7 +4348,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="28">
+      <c r="E96" s="25">
         <v>0</v>
       </c>
       <c r="G96" s="13"/>
@@ -4366,7 +4373,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4384,7 +4391,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -4438,7 +4445,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="31">
+      <c r="E106" s="28">
         <v>2599154.9300000002</v>
       </c>
     </row>
@@ -4456,7 +4463,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="31">
+      <c r="E108" s="28">
         <v>74000</v>
       </c>
     </row>
@@ -4475,11 +4482,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="32">
+      <c r="E110" s="29">
         <v>23942305.490000002</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -4533,54 +4540,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -4594,22 +4601,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -4644,7 +4651,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="30">
         <f>41190779.72+24834687.77</f>
         <v>66025467.489999995</v>
       </c>
@@ -4656,7 +4663,7 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="30">
         <v>161628001.88</v>
       </c>
     </row>
@@ -4667,7 +4674,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="30">
         <v>12060256.84</v>
       </c>
     </row>
@@ -4699,7 +4706,7 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="30">
         <v>37999425.620000012</v>
       </c>
     </row>
@@ -4710,7 +4717,7 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="30">
         <v>92389700.080000013</v>
       </c>
     </row>
@@ -4721,7 +4728,7 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="30">
         <v>829941.45</v>
       </c>
     </row>
@@ -4753,7 +4760,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="33">
+      <c r="E21" s="30">
         <v>408531984</v>
       </c>
     </row>
@@ -4764,7 +4771,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="33">
+      <c r="E22" s="30">
         <v>694219.11</v>
       </c>
     </row>
@@ -4784,7 +4791,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="30">
         <v>1584076</v>
       </c>
     </row>
@@ -4817,7 +4824,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <v>0</v>
       </c>
     </row>
@@ -4837,7 +4844,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="29">
         <v>0</v>
       </c>
     </row>
@@ -4969,7 +4976,7 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="30">
         <v>128192387.78</v>
       </c>
     </row>
@@ -4980,7 +4987,7 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="33">
+      <c r="E43" s="30">
         <v>74701792.709999993</v>
       </c>
     </row>
@@ -4991,7 +4998,7 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="33">
+      <c r="E44" s="30">
         <v>16906592.800000001</v>
       </c>
     </row>
@@ -5011,7 +5018,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="30">
         <f>217616.26+226815</f>
         <v>444431.26</v>
       </c>
@@ -5023,7 +5030,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="30">
         <f>99910.1+8051737.85</f>
         <v>8151647.9499999993</v>
       </c>
@@ -5035,7 +5042,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="30">
         <v>297360</v>
       </c>
     </row>
@@ -5055,7 +5062,7 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="33">
+      <c r="E50" s="30">
         <v>22284004.41</v>
       </c>
     </row>
@@ -5066,7 +5073,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="33">
+      <c r="E51" s="30">
         <v>7540622.2199999997</v>
       </c>
     </row>
@@ -5077,7 +5084,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="33">
+      <c r="E52" s="30">
         <v>126358</v>
       </c>
     </row>
@@ -5097,7 +5104,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="30">
         <v>644113.56999999995</v>
       </c>
     </row>
@@ -5108,7 +5115,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="30">
         <v>978029.83</v>
       </c>
     </row>
@@ -5119,7 +5126,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="30">
         <v>91100</v>
       </c>
     </row>
@@ -5139,7 +5146,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="30">
         <v>21073429.02</v>
       </c>
     </row>
@@ -5150,7 +5157,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="30">
         <v>3333571.24</v>
       </c>
     </row>
@@ -5161,7 +5168,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="30">
         <v>376555</v>
       </c>
     </row>
@@ -5181,7 +5188,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="33">
+      <c r="E62" s="30">
         <v>10946435.539999999</v>
       </c>
     </row>
@@ -5192,7 +5199,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="33">
+      <c r="E63" s="30">
         <v>64350077.509999998</v>
       </c>
     </row>
@@ -5203,7 +5210,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="33">
+      <c r="E64" s="30">
         <v>6231586.4699999997</v>
       </c>
     </row>
@@ -5223,7 +5230,7 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="33">
+      <c r="E66" s="30">
         <v>44035300.590000004</v>
       </c>
     </row>
@@ -5234,7 +5241,7 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="33">
+      <c r="E67" s="30">
         <f>43142595.53+171575.84</f>
         <v>43314171.370000005</v>
       </c>
@@ -5246,7 +5253,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="33">
+      <c r="E68" s="30">
         <v>20035262.100000001</v>
       </c>
     </row>
@@ -5317,7 +5324,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="33">
+      <c r="E75" s="30">
         <v>30208165.370000001</v>
       </c>
     </row>
@@ -5328,7 +5335,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="33">
+      <c r="E76" s="30">
         <v>492141.69</v>
       </c>
     </row>
@@ -5348,7 +5355,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="33">
+      <c r="E78" s="30">
         <v>25175000</v>
       </c>
     </row>
@@ -5359,7 +5366,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="33">
+      <c r="E79" s="30">
         <v>5949510</v>
       </c>
     </row>
@@ -5370,7 +5377,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="33"/>
+      <c r="E80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -5379,7 +5386,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="32">
+      <c r="E81" s="29">
         <v>0</v>
       </c>
     </row>
@@ -5390,7 +5397,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="33">
+      <c r="E82" s="30">
         <v>43004158.090000004</v>
       </c>
     </row>
@@ -5410,7 +5417,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5421,7 +5428,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="28">
         <v>0</v>
       </c>
     </row>
@@ -5441,7 +5448,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="28">
+      <c r="E87" s="25">
         <v>0</v>
       </c>
     </row>
@@ -5452,7 +5459,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
@@ -5483,7 +5490,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="33">
+      <c r="E91" s="30">
         <v>46286108.140000001</v>
       </c>
     </row>
@@ -5535,7 +5542,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="33">
+      <c r="E96" s="30">
         <v>766146.5</v>
       </c>
       <c r="G96" s="13"/>
@@ -5560,7 +5567,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -5578,7 +5585,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -5632,7 +5639,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="33">
+      <c r="E106" s="30">
         <v>14170410.74</v>
       </c>
     </row>
@@ -5650,7 +5657,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="33">
+      <c r="E108" s="30">
         <v>10024699.27</v>
       </c>
     </row>
@@ -5669,11 +5676,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="32">
-        <v>0</v>
-      </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="E110" s="29">
+        <v>0</v>
+      </c>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -5727,54 +5734,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -5788,22 +5795,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -5838,7 +5845,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <f>27973633.86</f>
         <v>27973633.859999999</v>
       </c>
@@ -5850,7 +5857,7 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="34">
+      <c r="E12" s="31">
         <v>69386240.819999993</v>
       </c>
     </row>
@@ -5861,7 +5868,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E13" s="32">
         <f>8709588.63</f>
         <v>8709588.6300000008</v>
       </c>
@@ -5894,7 +5901,7 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <f>21034210.13</f>
         <v>21034210.129999999</v>
       </c>
@@ -5906,7 +5913,7 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>157434876.44999999</v>
       </c>
     </row>
@@ -5917,7 +5924,7 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="36">
+      <c r="E18" s="33">
         <v>643246.76</v>
       </c>
     </row>
@@ -5949,7 +5956,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="34">
+      <c r="E21" s="31">
         <v>372026905</v>
       </c>
     </row>
@@ -5960,7 +5967,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="37">
+      <c r="E22" s="34">
         <v>3885797.4</v>
       </c>
     </row>
@@ -5980,7 +5987,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6013,7 +6020,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <v>0</v>
       </c>
     </row>
@@ -6033,7 +6040,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="34">
+      <c r="E29" s="31">
         <v>12792774</v>
       </c>
     </row>
@@ -6044,7 +6051,7 @@
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="34">
+      <c r="E30" s="31">
         <v>13294637.029999999</v>
       </c>
     </row>
@@ -6055,7 +6062,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="34">
+      <c r="E31" s="31">
         <v>78784116.040000007</v>
       </c>
     </row>
@@ -6075,7 +6082,7 @@
       <c r="D33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="34">
         <v>269668.40000000002</v>
       </c>
     </row>
@@ -6165,7 +6172,7 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="38">
+      <c r="E42" s="35">
         <v>97544996.390000001</v>
       </c>
     </row>
@@ -6176,7 +6183,7 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="38">
+      <c r="E43" s="35">
         <v>70958552.180000007</v>
       </c>
     </row>
@@ -6187,7 +6194,7 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="38">
+      <c r="E44" s="35">
         <v>1961182</v>
       </c>
     </row>
@@ -6207,7 +6214,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="33">
+      <c r="E46" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6218,7 +6225,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="33">
+      <c r="E47" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6229,7 +6236,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="33">
+      <c r="E48" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6249,7 +6256,7 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="38">
+      <c r="E50" s="35">
         <v>24952664.73</v>
       </c>
     </row>
@@ -6260,7 +6267,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="38">
+      <c r="E51" s="35">
         <v>14734924.109999999</v>
       </c>
     </row>
@@ -6271,7 +6278,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="38">
+      <c r="E52" s="35">
         <v>200948</v>
       </c>
     </row>
@@ -6291,7 +6298,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="33">
+      <c r="E54" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6302,7 +6309,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="33">
+      <c r="E55" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6313,7 +6320,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="33">
+      <c r="E56" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6333,7 +6340,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="33">
+      <c r="E58" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6344,7 +6351,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="33">
+      <c r="E59" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6355,7 +6362,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="33">
+      <c r="E60" s="30">
         <v>0</v>
       </c>
     </row>
@@ -6375,7 +6382,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="38">
+      <c r="E62" s="35">
         <v>15059892.49</v>
       </c>
     </row>
@@ -6386,7 +6393,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="38">
+      <c r="E63" s="35">
         <v>5767070</v>
       </c>
     </row>
@@ -6397,7 +6404,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="38">
+      <c r="E64" s="35">
         <v>96400</v>
       </c>
     </row>
@@ -6417,7 +6424,7 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="38">
+      <c r="E66" s="35">
         <v>106835606.36</v>
       </c>
     </row>
@@ -6428,7 +6435,7 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="38">
+      <c r="E67" s="35">
         <v>129882921.23</v>
       </c>
     </row>
@@ -6439,7 +6446,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="38">
+      <c r="E68" s="35">
         <v>9818725.8800000008</v>
       </c>
     </row>
@@ -6510,7 +6517,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="39">
+      <c r="E75" s="36">
         <f>19872751.76+319297.6</f>
         <v>20192049.360000003</v>
       </c>
@@ -6522,7 +6529,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="39">
+      <c r="E76" s="36">
         <v>50666666.68</v>
       </c>
     </row>
@@ -6542,7 +6549,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="39">
+      <c r="E78" s="36">
         <v>22846347.77</v>
       </c>
     </row>
@@ -6553,7 +6560,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="39">
+      <c r="E79" s="36">
         <v>3055677.45</v>
       </c>
     </row>
@@ -6564,7 +6571,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="33"/>
+      <c r="E80" s="30"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -6573,7 +6580,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="39">
+      <c r="E81" s="36">
         <v>8840810</v>
       </c>
     </row>
@@ -6584,7 +6591,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="39">
+      <c r="E82" s="36">
         <v>12035848.880000001</v>
       </c>
     </row>
@@ -6604,7 +6611,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -6615,7 +6622,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="28">
         <v>0</v>
       </c>
     </row>
@@ -6635,7 +6642,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="39">
+      <c r="E87" s="36">
         <v>1088282.4099999999</v>
       </c>
     </row>
@@ -6646,7 +6653,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
@@ -6666,7 +6673,7 @@
       <c r="D90" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="39">
+      <c r="E90" s="36">
         <v>11547421.93</v>
       </c>
     </row>
@@ -6677,7 +6684,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="39">
+      <c r="E91" s="36">
         <v>36260861.32</v>
       </c>
     </row>
@@ -6688,7 +6695,7 @@
       <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="39">
+      <c r="E92" s="36">
         <v>12197290</v>
       </c>
     </row>
@@ -6729,7 +6736,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="39">
+      <c r="E96" s="36">
         <v>674975</v>
       </c>
       <c r="G96" s="13"/>
@@ -6754,7 +6761,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -6772,7 +6779,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -6826,7 +6833,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="39">
+      <c r="E106" s="36">
         <v>58000</v>
       </c>
     </row>
@@ -6844,7 +6851,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="39">
+      <c r="E108" s="36">
         <v>1545729.42</v>
       </c>
     </row>
@@ -6863,11 +6870,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="32">
-        <v>0</v>
-      </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="E110" s="29">
+        <v>0</v>
+      </c>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -6921,54 +6928,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -6982,22 +6989,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -7032,7 +7039,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="37">
         <v>8127985.4000000004</v>
       </c>
     </row>
@@ -7043,10 +7050,10 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="41">
+      <c r="E12" s="38">
         <v>32670153.41</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -7055,7 +7062,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="40">
+      <c r="E13" s="37">
         <v>6161686.9900000002</v>
       </c>
     </row>
@@ -7087,10 +7094,10 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="41">
+      <c r="E16" s="38">
         <v>17940418</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -7099,10 +7106,10 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="38">
         <v>35117462.840000004</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -7111,10 +7118,10 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="41">
+      <c r="E18" s="38">
         <v>49423.57</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -7144,10 +7151,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="41">
+      <c r="E21" s="38">
         <v>506456779.88</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -7156,7 +7163,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="42">
+      <c r="E22" s="39">
         <v>0</v>
       </c>
     </row>
@@ -7183,7 +7190,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="43">
+      <c r="E24" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7216,7 +7223,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="40">
+      <c r="E27" s="37">
         <v>751197.66</v>
       </c>
     </row>
@@ -7236,7 +7243,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="37">
         <v>172076.44</v>
       </c>
     </row>
@@ -7247,7 +7254,7 @@
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="42">
+      <c r="E30" s="39">
         <v>0</v>
       </c>
     </row>
@@ -7258,7 +7265,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="42">
+      <c r="E31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -7278,7 +7285,7 @@
       <c r="D33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="37">
         <v>69149.05</v>
       </c>
     </row>
@@ -7300,10 +7307,10 @@
       <c r="D35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="38">
         <v>42633716.490000002</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -7369,10 +7376,10 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="38">
         <v>129995406.33</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -7381,10 +7388,10 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="38">
         <v>46293649.57</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -7393,10 +7400,10 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="41">
+      <c r="E44" s="38">
         <v>34874989.640000001</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -7414,7 +7421,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="40">
+      <c r="E46" s="37">
         <v>5545487.04</v>
       </c>
     </row>
@@ -7425,7 +7432,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="40">
+      <c r="E47" s="37">
         <v>1168392.67</v>
       </c>
     </row>
@@ -7436,7 +7443,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="40">
+      <c r="E48" s="37">
         <v>380703</v>
       </c>
     </row>
@@ -7456,10 +7463,10 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="38">
         <v>43392322.009999998</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -7468,7 +7475,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="40">
+      <c r="E51" s="37">
         <v>4599284.87</v>
       </c>
     </row>
@@ -7479,7 +7486,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="40">
+      <c r="E52" s="37">
         <v>275580</v>
       </c>
     </row>
@@ -7499,7 +7506,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7510,7 +7517,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7521,7 +7528,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7541,7 +7548,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7552,7 +7559,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>4735881</v>
       </c>
     </row>
@@ -7563,7 +7570,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="40">
         <v>0</v>
       </c>
     </row>
@@ -7583,7 +7590,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="40">
+      <c r="E62" s="37">
         <v>5891379.5800000001</v>
       </c>
     </row>
@@ -7594,7 +7601,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="40">
+      <c r="E63" s="37">
         <v>1955623.44</v>
       </c>
     </row>
@@ -7605,7 +7612,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="40">
+      <c r="E64" s="37">
         <v>28954</v>
       </c>
     </row>
@@ -7625,10 +7632,10 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="38">
         <v>50382426.399999999</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -7637,10 +7644,10 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="38">
         <v>14377406</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
@@ -7649,7 +7656,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="40">
+      <c r="E68" s="37">
         <v>1109751.71</v>
       </c>
     </row>
@@ -7720,7 +7727,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="40">
+      <c r="E75" s="37">
         <v>33421145.52</v>
       </c>
     </row>
@@ -7731,7 +7738,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="44">
+      <c r="E76" s="41">
         <v>0</v>
       </c>
     </row>
@@ -7751,7 +7758,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="40">
+      <c r="E78" s="37">
         <v>3780558</v>
       </c>
     </row>
@@ -7762,7 +7769,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="44">
+      <c r="E79" s="41">
         <v>0</v>
       </c>
     </row>
@@ -7773,7 +7780,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="43"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -7782,7 +7789,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="40">
+      <c r="E81" s="37">
         <v>37540826.68</v>
       </c>
     </row>
@@ -7793,7 +7800,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="40">
+      <c r="E82" s="37">
         <v>12794829.800000001</v>
       </c>
     </row>
@@ -7813,7 +7820,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7824,7 +7831,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="31">
+      <c r="E85" s="28">
         <v>0</v>
       </c>
     </row>
@@ -7844,7 +7851,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="40">
+      <c r="E87" s="37">
         <v>2856541.95</v>
       </c>
     </row>
@@ -7855,7 +7862,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="28">
+      <c r="E88" s="25">
         <v>0</v>
       </c>
     </row>
@@ -7875,7 +7882,7 @@
       <c r="D90" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="40">
+      <c r="E90" s="37">
         <v>21379080</v>
       </c>
     </row>
@@ -7886,7 +7893,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="37">
         <v>50256581.049999997</v>
       </c>
     </row>
@@ -7897,7 +7904,7 @@
       <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="41">
         <v>0</v>
       </c>
     </row>
@@ -7938,7 +7945,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="44">
+      <c r="E96" s="41">
         <v>0</v>
       </c>
       <c r="G96" s="13"/>
@@ -7963,7 +7970,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -7981,7 +7988,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -8035,7 +8042,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="41">
         <v>0</v>
       </c>
     </row>
@@ -8053,7 +8060,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="44">
+      <c r="E108" s="41">
         <v>0</v>
       </c>
     </row>
@@ -8072,11 +8079,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="32">
-        <v>0</v>
-      </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="E110" s="29">
+        <v>0</v>
+      </c>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -8130,54 +8137,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -8191,22 +8198,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -8241,7 +8248,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="42">
         <v>50968926.120000005</v>
       </c>
     </row>
@@ -8252,10 +8259,10 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="45">
+      <c r="E12" s="42">
         <v>103020241.17</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -8264,7 +8271,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="42">
         <v>4289907.3599999994</v>
       </c>
     </row>
@@ -8296,10 +8303,10 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="42">
         <v>28852303.16</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -8308,10 +8315,10 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="45">
+      <c r="E17" s="42">
         <v>43193314.909999996</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -8320,10 +8327,10 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="45">
+      <c r="E18" s="42">
         <v>732283.43</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -8353,10 +8360,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="45">
+      <c r="E21" s="42">
         <v>384789428</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -8365,7 +8372,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="42">
+      <c r="E22" s="39">
         <v>0</v>
       </c>
     </row>
@@ -8392,7 +8399,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>8297020.9299999997</v>
       </c>
     </row>
@@ -8414,7 +8421,7 @@
       <c r="D26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>1144</v>
       </c>
     </row>
@@ -8425,7 +8432,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>78829331</v>
       </c>
     </row>
@@ -8445,7 +8452,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8456,7 +8463,7 @@
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="42">
         <v>80000</v>
       </c>
     </row>
@@ -8467,7 +8474,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="42">
+      <c r="E31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -8487,7 +8494,7 @@
       <c r="D33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8509,10 +8516,10 @@
       <c r="D35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="42">
         <v>1145181</v>
       </c>
-      <c r="F35" s="41"/>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -8578,10 +8585,10 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="42">
         <v>153953897.29000002</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -8590,10 +8597,10 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="42">
         <v>221618875.14000002</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -8602,10 +8609,10 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="45">
+      <c r="E44" s="42">
         <v>26731405.09</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -8623,7 +8630,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="42">
         <v>2584103.77</v>
       </c>
     </row>
@@ -8634,7 +8641,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="42">
         <v>6958627.0199999996</v>
       </c>
     </row>
@@ -8645,7 +8652,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="42">
         <v>6832438.9399999995</v>
       </c>
     </row>
@@ -8665,10 +8672,10 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="42">
         <v>28783351.059999999</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -8677,7 +8684,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="42">
         <v>886908.72</v>
       </c>
     </row>
@@ -8688,7 +8695,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="42">
         <v>0</v>
       </c>
     </row>
@@ -8708,7 +8715,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>0</v>
       </c>
     </row>
@@ -8719,7 +8726,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>0</v>
       </c>
     </row>
@@ -8730,7 +8737,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
@@ -8750,7 +8757,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="40">
         <v>0</v>
       </c>
     </row>
@@ -8761,7 +8768,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>0</v>
       </c>
     </row>
@@ -8772,7 +8779,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="40">
         <v>0</v>
       </c>
     </row>
@@ -8792,7 +8799,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="42">
         <v>3657706.59</v>
       </c>
     </row>
@@ -8803,7 +8810,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="42">
         <v>3841400</v>
       </c>
     </row>
@@ -8814,7 +8821,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="42">
         <v>0</v>
       </c>
     </row>
@@ -8834,10 +8841,10 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="42">
         <v>16693643.18</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -8846,10 +8853,10 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="45">
+      <c r="E67" s="42">
         <v>6653233.4099999992</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
@@ -8858,7 +8865,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="45">
+      <c r="E68" s="42">
         <v>678500</v>
       </c>
     </row>
@@ -8929,7 +8936,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="45">
+      <c r="E75" s="42">
         <v>1999928.67</v>
       </c>
     </row>
@@ -8940,7 +8947,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="45">
+      <c r="E76" s="42">
         <v>15348014.939999999</v>
       </c>
     </row>
@@ -8960,7 +8967,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="42">
         <v>3445786.48</v>
       </c>
     </row>
@@ -8971,7 +8978,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="45">
+      <c r="E79" s="42">
         <v>10025395.35</v>
       </c>
     </row>
@@ -8982,7 +8989,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="43"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -8991,7 +8998,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="42">
         <v>5722149</v>
       </c>
     </row>
@@ -9002,7 +9009,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="45">
+      <c r="E82" s="42">
         <v>36571352.890000001</v>
       </c>
     </row>
@@ -9022,7 +9029,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -9033,7 +9040,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="42">
         <v>40740405.140000001</v>
       </c>
     </row>
@@ -9053,7 +9060,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E87" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9064,7 +9071,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9084,7 +9091,7 @@
       <c r="D90" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="40">
+      <c r="E90" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9095,7 +9102,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9106,7 +9113,7 @@
       <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="41">
         <v>0</v>
       </c>
     </row>
@@ -9147,7 +9154,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="45">
+      <c r="E96" s="42">
         <v>28065012.260000002</v>
       </c>
       <c r="G96" s="13"/>
@@ -9172,7 +9179,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -9190,7 +9197,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -9226,7 +9233,7 @@
       <c r="D104" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="42">
         <v>149820</v>
       </c>
     </row>
@@ -9244,7 +9251,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="41">
         <v>0</v>
       </c>
     </row>
@@ -9262,7 +9269,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="42">
         <v>26927656.640000001</v>
       </c>
     </row>
@@ -9281,11 +9288,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="42">
         <v>5800108.6900000004</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -9325,8 +9332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612990AF-2404-49E3-96D4-65A0F432426D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9339,54 +9346,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -9400,22 +9407,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -9450,7 +9457,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="43">
         <f>17539361.74+16934582.23</f>
         <v>34473943.969999999</v>
       </c>
@@ -9462,8 +9469,10 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="41"/>
+      <c r="E12" s="44">
+        <v>0</v>
+      </c>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -9472,7 +9481,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="43">
         <f>19896661.62+0</f>
         <v>19896661.620000001</v>
       </c>
@@ -9505,11 +9514,11 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="43">
         <f>9844042.9</f>
         <v>9844042.9000000004</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -9518,11 +9527,11 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="43">
         <f>315090259.7+0</f>
         <v>315090259.69999999</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -9531,11 +9540,11 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="46">
+      <c r="E18" s="43">
         <f>11897899.41+45081.17</f>
         <v>11942980.58</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -9565,10 +9574,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="48">
+      <c r="E21" s="45">
         <v>396457049</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -9577,7 +9586,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="42">
+      <c r="E22" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9604,7 +9613,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9626,7 +9635,7 @@
       <c r="D26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9637,7 +9646,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9657,7 +9666,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9668,7 +9677,7 @@
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
@@ -9679,7 +9688,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="42">
+      <c r="E31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -9699,7 +9708,7 @@
       <c r="D33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9721,10 +9730,10 @@
       <c r="D35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="45">
-        <v>0</v>
-      </c>
-      <c r="F35" s="41"/>
+      <c r="E35" s="42">
+        <v>0</v>
+      </c>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -9790,10 +9799,10 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="48">
+      <c r="E42" s="45">
         <v>135559402.44999999</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -9802,10 +9811,10 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="48">
+      <c r="E43" s="45">
         <v>135816877.38</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -9814,10 +9823,10 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="48">
+      <c r="E44" s="45">
         <v>3881487.1</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -9835,7 +9844,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="46">
+      <c r="E46" s="43">
         <f>91450058.93+0</f>
         <v>91450058.930000007</v>
       </c>
@@ -9847,7 +9856,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="46">
+      <c r="E47" s="43">
         <f>13513357.88+12248790.17</f>
         <v>25762148.050000001</v>
       </c>
@@ -9859,7 +9868,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="46">
+      <c r="E48" s="43">
         <f>24419620.53+1506656</f>
         <v>25926276.530000001</v>
       </c>
@@ -9880,11 +9889,11 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="46">
+      <c r="E50" s="43">
         <f>14701218.74</f>
         <v>14701218.74</v>
       </c>
-      <c r="F50" s="41"/>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -9893,7 +9902,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="43">
         <f>3273103.71</f>
         <v>3273103.71</v>
       </c>
@@ -9905,7 +9914,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="43">
         <v>77210</v>
       </c>
     </row>
@@ -9925,7 +9934,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>0</v>
       </c>
     </row>
@@ -9936,7 +9945,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>0</v>
       </c>
     </row>
@@ -9947,7 +9956,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
@@ -9967,7 +9976,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="40">
         <v>0</v>
       </c>
     </row>
@@ -9978,7 +9987,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>0</v>
       </c>
     </row>
@@ -9989,7 +9998,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="40">
         <v>0</v>
       </c>
     </row>
@@ -10009,7 +10018,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="48">
+      <c r="E62" s="45">
         <v>4253896.01</v>
       </c>
     </row>
@@ -10020,7 +10029,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="46">
+      <c r="E63" s="43">
         <v>3036728.08</v>
       </c>
     </row>
@@ -10031,7 +10040,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="46">
+      <c r="E64" s="43">
         <v>36000</v>
       </c>
     </row>
@@ -10051,10 +10060,10 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="46">
+      <c r="E66" s="43">
         <v>57427592.32</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -10063,10 +10072,10 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="46">
+      <c r="E67" s="43">
         <v>73046642.480000004</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
@@ -10075,7 +10084,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="46">
+      <c r="E68" s="43">
         <v>1487346.91</v>
       </c>
     </row>
@@ -10146,7 +10155,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="48">
+      <c r="E75" s="45">
         <f>20838459.44+86658.96+32000000</f>
         <v>52925118.400000006</v>
       </c>
@@ -10158,7 +10167,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="45">
+      <c r="E76" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10178,7 +10187,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="46">
+      <c r="E78" s="43">
         <f>25953442.97+0</f>
         <v>25953442.969999999</v>
       </c>
@@ -10190,7 +10199,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="46">
+      <c r="E79" s="43">
         <f>12150000+0</f>
         <v>12150000</v>
       </c>
@@ -10202,7 +10211,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="43"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -10211,7 +10220,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10222,7 +10231,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="48">
+      <c r="E82" s="45">
         <f>72162066.55</f>
         <v>72162066.549999997</v>
       </c>
@@ -10243,7 +10252,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -10254,7 +10263,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10274,7 +10283,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E87" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10285,7 +10294,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10305,7 +10314,7 @@
       <c r="D90" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="40">
+      <c r="E90" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10316,7 +10325,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="40">
+      <c r="E91" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10327,7 +10336,7 @@
       <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="44">
+      <c r="E92" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10368,7 +10377,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="48">
+      <c r="E96" s="45">
         <v>389832</v>
       </c>
       <c r="G96" s="13"/>
@@ -10393,7 +10402,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -10411,7 +10420,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="28">
+      <c r="E100" s="25">
         <v>0</v>
       </c>
     </row>
@@ -10447,7 +10456,7 @@
       <c r="D104" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10465,7 +10474,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="44">
+      <c r="E106" s="41">
         <v>0</v>
       </c>
     </row>
@@ -10483,7 +10492,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10502,11 +10511,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="48">
+      <c r="E110" s="45">
         <v>8318340.9500000002</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">
@@ -10546,7 +10555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC684775-99A6-46C4-AEF4-F69FF19C14A6}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -10560,54 +10569,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
+      <c r="H3" s="52"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -10621,22 +10630,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="27" t="s">
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="54" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="27"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="54"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -10671,7 +10680,7 @@
       <c r="D11" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="46">
         <v>11630394.33</v>
       </c>
     </row>
@@ -10682,10 +10691,10 @@
       <c r="D12" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="46">
         <v>36441141.029999994</v>
       </c>
-      <c r="F12" s="41"/>
+      <c r="F12" s="38"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
@@ -10694,7 +10703,7 @@
       <c r="D13" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="50">
+      <c r="E13" s="47">
         <v>4093733.5</v>
       </c>
     </row>
@@ -10726,10 +10735,10 @@
       <c r="D16" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="51">
+      <c r="E16" s="48">
         <v>14594353.68</v>
       </c>
-      <c r="F16" s="41"/>
+      <c r="F16" s="38"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
@@ -10738,10 +10747,10 @@
       <c r="D17" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="49">
+      <c r="E17" s="46">
         <v>73752124.519999996</v>
       </c>
-      <c r="F17" s="41"/>
+      <c r="F17" s="38"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
@@ -10750,10 +10759,10 @@
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="50">
+      <c r="E18" s="47">
         <v>212615</v>
       </c>
-      <c r="F18" s="41"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="13"/>
@@ -10783,10 +10792,10 @@
         <v>46</v>
       </c>
       <c r="D21" s="13"/>
-      <c r="E21" s="49">
+      <c r="E21" s="46">
         <v>250818921</v>
       </c>
-      <c r="F21" s="41"/>
+      <c r="F21" s="38"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
@@ -10795,7 +10804,7 @@
         <v>45</v>
       </c>
       <c r="D22" s="13"/>
-      <c r="E22" s="49">
+      <c r="E22" s="46">
         <v>401359.39</v>
       </c>
     </row>
@@ -10822,7 +10831,7 @@
       <c r="D24" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10844,7 +10853,7 @@
       <c r="D26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10855,7 +10864,7 @@
       <c r="D27" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="45">
+      <c r="E27" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10875,7 +10884,7 @@
       <c r="D29" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="40">
+      <c r="E29" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10886,7 +10895,7 @@
       <c r="D30" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="45">
+      <c r="E30" s="42">
         <v>0</v>
       </c>
     </row>
@@ -10897,7 +10906,7 @@
         <v>36</v>
       </c>
       <c r="D31" s="13"/>
-      <c r="E31" s="42">
+      <c r="E31" s="39">
         <v>0</v>
       </c>
     </row>
@@ -10917,7 +10926,7 @@
       <c r="D33" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="40">
+      <c r="E33" s="37">
         <v>0</v>
       </c>
     </row>
@@ -10939,10 +10948,10 @@
       <c r="D35" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="45">
-        <v>0</v>
-      </c>
-      <c r="F35" s="41"/>
+      <c r="E35" s="42">
+        <v>0</v>
+      </c>
+      <c r="F35" s="38"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
@@ -11008,10 +11017,10 @@
       <c r="D42" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="49">
         <v>95298852.570000023</v>
       </c>
-      <c r="F42" s="41"/>
+      <c r="F42" s="38"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
@@ -11020,10 +11029,10 @@
       <c r="D43" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="49">
         <v>28651515.369999997</v>
       </c>
-      <c r="F43" s="41"/>
+      <c r="F43" s="38"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="13"/>
@@ -11032,10 +11041,10 @@
       <c r="D44" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="52">
+      <c r="E44" s="49">
         <v>1084033.9199999997</v>
       </c>
-      <c r="F44" s="41"/>
+      <c r="F44" s="38"/>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="13"/>
@@ -11053,7 +11062,7 @@
       <c r="D46" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="52">
+      <c r="E46" s="49">
         <v>19108440.939999998</v>
       </c>
     </row>
@@ -11064,7 +11073,7 @@
       <c r="D47" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="52">
+      <c r="E47" s="49">
         <v>3926734.75</v>
       </c>
     </row>
@@ -11075,7 +11084,7 @@
       <c r="D48" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="52">
+      <c r="E48" s="49">
         <v>113095.12</v>
       </c>
     </row>
@@ -11095,10 +11104,10 @@
       <c r="D50" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="46">
-        <v>0</v>
-      </c>
-      <c r="F50" s="41"/>
+      <c r="E50" s="43">
+        <v>0</v>
+      </c>
+      <c r="F50" s="38"/>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="13"/>
@@ -11107,7 +11116,7 @@
       <c r="D51" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="46">
+      <c r="E51" s="43">
         <v>0</v>
       </c>
     </row>
@@ -11118,7 +11127,7 @@
       <c r="D52" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="46">
+      <c r="E52" s="43">
         <v>0</v>
       </c>
     </row>
@@ -11138,7 +11147,7 @@
       <c r="D54" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="40">
         <v>0</v>
       </c>
     </row>
@@ -11149,7 +11158,7 @@
       <c r="D55" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="43">
+      <c r="E55" s="40">
         <v>0</v>
       </c>
     </row>
@@ -11160,7 +11169,7 @@
       <c r="D56" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="43">
+      <c r="E56" s="40">
         <v>0</v>
       </c>
     </row>
@@ -11180,7 +11189,7 @@
       <c r="D58" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="43">
+      <c r="E58" s="40">
         <v>0</v>
       </c>
     </row>
@@ -11191,7 +11200,7 @@
       <c r="D59" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="40">
+      <c r="E59" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11202,7 +11211,7 @@
       <c r="D60" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="43">
+      <c r="E60" s="40">
         <v>0</v>
       </c>
     </row>
@@ -11222,7 +11231,7 @@
       <c r="D62" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="52">
+      <c r="E62" s="49">
         <v>9865056.1399999987</v>
       </c>
     </row>
@@ -11233,7 +11242,7 @@
       <c r="D63" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="52">
+      <c r="E63" s="49">
         <v>372783.55000000005</v>
       </c>
     </row>
@@ -11244,7 +11253,7 @@
       <c r="D64" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="52">
+      <c r="E64" s="49">
         <v>0</v>
       </c>
     </row>
@@ -11264,10 +11273,10 @@
       <c r="D66" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="49">
         <v>41672219.169999994</v>
       </c>
-      <c r="F66" s="41"/>
+      <c r="F66" s="38"/>
     </row>
     <row r="67" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="13"/>
@@ -11276,10 +11285,10 @@
       <c r="D67" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="49">
         <v>4043099.68</v>
       </c>
-      <c r="F67" s="41"/>
+      <c r="F67" s="38"/>
     </row>
     <row r="68" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="13"/>
@@ -11288,7 +11297,7 @@
       <c r="D68" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="49">
         <v>637555.30000000005</v>
       </c>
     </row>
@@ -11359,7 +11368,7 @@
       <c r="D75" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="52">
+      <c r="E75" s="49">
         <v>386108.52999999991</v>
       </c>
     </row>
@@ -11370,7 +11379,7 @@
       <c r="D76" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="52">
+      <c r="E76" s="49">
         <v>2199338.6799999997</v>
       </c>
     </row>
@@ -11390,7 +11399,7 @@
       <c r="D78" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="52">
+      <c r="E78" s="49">
         <v>6072787.4199999999</v>
       </c>
     </row>
@@ -11401,7 +11410,7 @@
       <c r="D79" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="52">
+      <c r="E79" s="49">
         <v>10569532.449999999</v>
       </c>
     </row>
@@ -11412,7 +11421,7 @@
         <v>19</v>
       </c>
       <c r="D80" s="13"/>
-      <c r="E80" s="43"/>
+      <c r="E80" s="40"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
@@ -11421,7 +11430,7 @@
       <c r="D81" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="53">
+      <c r="E81" s="50">
         <v>40327802.680000007</v>
       </c>
     </row>
@@ -11432,7 +11441,7 @@
       <c r="D82" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="53">
+      <c r="E82" s="50">
         <v>23714151.040000003</v>
       </c>
     </row>
@@ -11452,7 +11461,7 @@
       <c r="D84" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="31">
+      <c r="E84" s="28">
         <v>0</v>
       </c>
     </row>
@@ -11463,7 +11472,7 @@
       <c r="D85" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11483,7 +11492,7 @@
       <c r="D87" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="52">
+      <c r="E87" s="49">
         <v>7601.9</v>
       </c>
     </row>
@@ -11494,7 +11503,7 @@
       <c r="D88" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11514,7 +11523,7 @@
       <c r="D90" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="40">
+      <c r="E90" s="37">
         <v>0</v>
       </c>
     </row>
@@ -11525,7 +11534,7 @@
       <c r="D91" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="52">
+      <c r="E91" s="49">
         <v>10550772.77</v>
       </c>
     </row>
@@ -11536,7 +11545,7 @@
       <c r="D92" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="52">
+      <c r="E92" s="49">
         <v>4822859.0299999993</v>
       </c>
     </row>
@@ -11577,7 +11586,7 @@
       <c r="D96" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="52">
+      <c r="E96" s="49">
         <v>1062469.68</v>
       </c>
       <c r="G96" s="13"/>
@@ -11602,7 +11611,7 @@
       <c r="D98" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="28">
+      <c r="E98" s="25">
         <v>0</v>
       </c>
     </row>
@@ -11620,7 +11629,7 @@
       <c r="D100" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="52">
+      <c r="E100" s="49">
         <v>300784.88</v>
       </c>
     </row>
@@ -11656,7 +11665,7 @@
       <c r="D104" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="42">
         <v>0</v>
       </c>
     </row>
@@ -11674,7 +11683,7 @@
       <c r="D106" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="52">
+      <c r="E106" s="49">
         <v>41851</v>
       </c>
     </row>
@@ -11692,7 +11701,7 @@
       <c r="D108" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="54">
+      <c r="E108" s="51">
         <v>96650</v>
       </c>
     </row>
@@ -11711,11 +11720,11 @@
       <c r="D110" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="52">
+      <c r="E110" s="49">
         <v>482000</v>
       </c>
-      <c r="F110" s="28"/>
-      <c r="G110" s="28"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="15" t="s">

--- a/SCBAA/2016/Region 1.xlsx
+++ b/SCBAA/2016/Region 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2016\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0147B9-3A41-4631-80C6-ABE18A0E1A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F80E4E7-94BF-4C6C-9877-86B706AC040D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12225" yWindow="0" windowWidth="14880" windowHeight="11070" firstSheet="4" activeTab="7" xr2:uid="{59A44D02-77E2-42B7-86D9-FC4759A67587}"/>
+    <workbookView xWindow="2730" yWindow="1530" windowWidth="14880" windowHeight="11070" firstSheet="3" activeTab="7" xr2:uid="{59A44D02-77E2-42B7-86D9-FC4759A67587}"/>
   </bookViews>
   <sheets>
     <sheet name="Alaminos" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -622,6 +622,9 @@
     </xf>
     <xf numFmtId="4" fontId="23" fillId="0" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -969,54 +972,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -1030,22 +1033,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -2144,8 +2147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FAD14D-FCE6-4B98-8C44-C02535A96126}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,54 +2161,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -2219,22 +2222,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -2270,7 +2273,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="25">
-        <f>10476592.27+10077118.82</f>
         <v>20553711.09</v>
       </c>
     </row>
@@ -2304,7 +2306,6 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>48085258.850000001</v>
       </c>
     </row>
@@ -2342,7 +2343,7 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
@@ -2358,7 +2359,6 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>53060917.439999998</v>
       </c>
     </row>
@@ -2549,7 +2549,6 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>588802836.92999995</v>
       </c>
     </row>
@@ -3126,7 +3125,6 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>245502139.93000001</v>
       </c>
     </row>
@@ -3302,7 +3300,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E95:E110)</f>
         <v>116860728.25</v>
       </c>
     </row>
@@ -3314,7 +3311,6 @@
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>362362868.18000001</v>
       </c>
     </row>
@@ -3350,54 +3346,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -3411,22 +3407,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -4527,7 +4523,7 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+      <selection activeCell="F80" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4540,54 +4536,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -4601,22 +4597,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -4652,7 +4648,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="30">
-        <f>41190779.72+24834687.77</f>
         <v>66025467.489999995</v>
       </c>
     </row>
@@ -4686,7 +4681,6 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>239713726.21000001</v>
       </c>
     </row>
@@ -4724,7 +4718,7 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
@@ -4740,7 +4734,6 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>131219067.15000002</v>
       </c>
     </row>
@@ -4931,7 +4924,6 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>781743072.47000003</v>
       </c>
     </row>
@@ -5019,7 +5011,6 @@
         <v>26</v>
       </c>
       <c r="E46" s="30">
-        <f>217616.26+226815</f>
         <v>444431.26</v>
       </c>
     </row>
@@ -5031,7 +5022,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="30">
-        <f>99910.1+8051737.85</f>
         <v>8151647.9499999993</v>
       </c>
     </row>
@@ -5242,7 +5232,6 @@
         <v>25</v>
       </c>
       <c r="E67" s="30">
-        <f>43142595.53+171575.84</f>
         <v>43314171.370000005</v>
       </c>
     </row>
@@ -5511,7 +5500,6 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>625169912.66000009</v>
       </c>
     </row>
@@ -5687,7 +5675,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E95:E110)</f>
         <v>24961256.509999998</v>
       </c>
     </row>
@@ -5699,7 +5686,6 @@
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>650131169.17000008</v>
       </c>
     </row>
@@ -5720,8 +5706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA9D0876-C2BD-4CFD-AD87-AE49E92F7858}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E109" activeCellId="29" sqref="E10 E15 E20 E23 E28 E32 E41 E45 E49 E53 E57 E61 E65 E69 E73 E74 E77 E80 E83 E86 E89 E94 E95 E97 E99 E101 E103 E105 E107 E109"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F12" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5734,54 +5720,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -5795,22 +5781,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -5846,7 +5832,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="31">
-        <f>27973633.86</f>
         <v>27973633.859999999</v>
       </c>
     </row>
@@ -5869,7 +5854,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="32">
-        <f>8709588.63</f>
         <v>8709588.6300000008</v>
       </c>
     </row>
@@ -5881,7 +5865,6 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>106069463.30999999</v>
       </c>
     </row>
@@ -5902,7 +5885,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="31">
-        <f>21034210.13</f>
         <v>21034210.129999999</v>
       </c>
     </row>
@@ -5920,7 +5902,7 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
@@ -5936,7 +5918,6 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>179112333.33999997</v>
       </c>
     </row>
@@ -6127,7 +6108,6 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>766235694.51999986</v>
       </c>
     </row>
@@ -6518,7 +6498,6 @@
         <v>22</v>
       </c>
       <c r="E75" s="36">
-        <f>19872751.76+319297.6</f>
         <v>20192049.360000003</v>
       </c>
     </row>
@@ -6705,7 +6684,6 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>656545139.16999996</v>
       </c>
     </row>
@@ -6881,7 +6859,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E95:E110)</f>
         <v>2278704.42</v>
       </c>
     </row>
@@ -6893,7 +6870,6 @@
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>658823843.58999991</v>
       </c>
     </row>
@@ -6928,54 +6904,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -6989,22 +6965,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -8123,8 +8099,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51C0EB05-E00B-4BC8-9F85-67F9CE17873D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E38" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8137,54 +8113,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -8198,22 +8174,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -9332,8 +9308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612990AF-2404-49E3-96D4-65A0F432426D}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F44" sqref="F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9346,54 +9322,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -9407,22 +9383,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
@@ -9458,7 +9434,6 @@
         <v>56</v>
       </c>
       <c r="E11" s="43">
-        <f>17539361.74+16934582.23</f>
         <v>34473943.969999999</v>
       </c>
     </row>
@@ -9482,7 +9457,6 @@
         <v>54</v>
       </c>
       <c r="E13" s="43">
-        <f>19896661.62+0</f>
         <v>19896661.620000001</v>
       </c>
     </row>
@@ -9494,7 +9468,6 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="8">
-        <f>SUM(E11:E13)</f>
         <v>54370605.590000004</v>
       </c>
     </row>
@@ -9515,7 +9488,6 @@
         <v>51</v>
       </c>
       <c r="E16" s="43">
-        <f>9844042.9</f>
         <v>9844042.9000000004</v>
       </c>
       <c r="F16" s="38"/>
@@ -9528,7 +9500,6 @@
         <v>50</v>
       </c>
       <c r="E17" s="43">
-        <f>315090259.7+0</f>
         <v>315090259.69999999</v>
       </c>
       <c r="F17" s="38"/>
@@ -9536,12 +9507,11 @@
     <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
-      <c r="C18" s="18"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="13" t="s">
         <v>49</v>
       </c>
       <c r="E18" s="43">
-        <f>11897899.41+45081.17</f>
         <v>11942980.58</v>
       </c>
       <c r="F18" s="38"/>
@@ -9554,7 +9524,6 @@
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="8">
-        <f>SUM(E16:E18)</f>
         <v>336877283.17999995</v>
       </c>
     </row>
@@ -9754,7 +9723,6 @@
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
       <c r="E37" s="8">
-        <f>SUM(E14,E19,E21:E36)</f>
         <v>787704937.76999998</v>
       </c>
     </row>
@@ -9845,7 +9813,6 @@
         <v>26</v>
       </c>
       <c r="E46" s="43">
-        <f>91450058.93+0</f>
         <v>91450058.930000007</v>
       </c>
     </row>
@@ -9857,7 +9824,6 @@
         <v>25</v>
       </c>
       <c r="E47" s="43">
-        <f>13513357.88+12248790.17</f>
         <v>25762148.050000001</v>
       </c>
     </row>
@@ -9869,7 +9835,6 @@
         <v>2</v>
       </c>
       <c r="E48" s="43">
-        <f>24419620.53+1506656</f>
         <v>25926276.530000001</v>
       </c>
     </row>
@@ -9890,7 +9855,6 @@
         <v>26</v>
       </c>
       <c r="E50" s="43">
-        <f>14701218.74</f>
         <v>14701218.74</v>
       </c>
       <c r="F50" s="38"/>
@@ -9903,7 +9867,6 @@
         <v>25</v>
       </c>
       <c r="E51" s="43">
-        <f>3273103.71</f>
         <v>3273103.71</v>
       </c>
     </row>
@@ -10156,7 +10119,6 @@
         <v>22</v>
       </c>
       <c r="E75" s="45">
-        <f>20838459.44+86658.96+32000000</f>
         <v>52925118.400000006</v>
       </c>
     </row>
@@ -10188,7 +10150,6 @@
         <v>14</v>
       </c>
       <c r="E78" s="43">
-        <f>25953442.97+0</f>
         <v>25953442.969999999</v>
       </c>
     </row>
@@ -10200,7 +10161,6 @@
         <v>13</v>
       </c>
       <c r="E79" s="43">
-        <f>12150000+0</f>
         <v>12150000</v>
       </c>
     </row>
@@ -10232,7 +10192,6 @@
         <v>13</v>
       </c>
       <c r="E82" s="45">
-        <f>72162066.55</f>
         <v>72162066.549999997</v>
       </c>
     </row>
@@ -10346,7 +10305,6 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="8">
-        <f>SUM(E41:E92)</f>
         <v>738926616.6099999</v>
       </c>
     </row>
@@ -10522,7 +10480,6 @@
         <v>1</v>
       </c>
       <c r="E111" s="2">
-        <f>SUM(E95:E110)</f>
         <v>8708172.9499999993</v>
       </c>
     </row>
@@ -10534,7 +10491,6 @@
       <c r="C112" s="24"/>
       <c r="D112" s="24"/>
       <c r="E112" s="1">
-        <f>SUM(E93,E111)</f>
         <v>747634789.55999994</v>
       </c>
     </row>
@@ -10548,6 +10504,7 @@
     <mergeCell ref="E6:E7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10569,54 +10526,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="53" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="13"/>
@@ -10630,22 +10587,22 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="54" t="s">
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="55" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
